--- a/doc_excel/データ情報.xlsx
+++ b/doc_excel/データ情報.xlsx
@@ -1,26 +1,344 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37F5B62-4E91-423B-BA6B-6C0DBE43CFBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="7830" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="大臣リスト" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="91">
+  <si>
+    <t>津村啓介</t>
+  </si>
+  <si>
+    <t>前原誠司</t>
+  </si>
+  <si>
+    <t>階猛</t>
+  </si>
+  <si>
+    <t>辻元清美</t>
+  </si>
+  <si>
+    <t>細野豪志</t>
+  </si>
+  <si>
+    <t>山井和則</t>
+  </si>
+  <si>
+    <t>宮崎岳志</t>
+  </si>
+  <si>
+    <t>本村賢太郎</t>
+  </si>
+  <si>
+    <t>岸本周平</t>
+  </si>
+  <si>
+    <t>井出庸生</t>
+  </si>
+  <si>
+    <t>馬淵澄夫</t>
+  </si>
+  <si>
+    <t>石関貴史</t>
+  </si>
+  <si>
+    <t>西村智奈美</t>
+  </si>
+  <si>
+    <t>松野頼久</t>
+  </si>
+  <si>
+    <t>初鹿明博</t>
+  </si>
+  <si>
+    <t>阿部知子</t>
+  </si>
+  <si>
+    <t>岡本充功</t>
+  </si>
+  <si>
+    <t>小山展弘</t>
+  </si>
+  <si>
+    <t>渡辺周</t>
+  </si>
+  <si>
+    <t>逢坂誠二</t>
+  </si>
+  <si>
+    <t>青柳陽一郎</t>
+  </si>
+  <si>
+    <t>落合貴之</t>
+  </si>
+  <si>
+    <t>小熊慎司</t>
+  </si>
+  <si>
+    <t>長妻昭</t>
+  </si>
+  <si>
+    <t>大串博志</t>
+  </si>
+  <si>
+    <t>岡田克也</t>
+  </si>
+  <si>
+    <t>篠原孝</t>
+  </si>
+  <si>
+    <t>古川元久</t>
+  </si>
+  <si>
+    <t>下村博文</t>
+  </si>
+  <si>
+    <t>菅原一秀</t>
+  </si>
+  <si>
+    <t>野田毅</t>
+  </si>
+  <si>
+    <t>加藤紘一</t>
+  </si>
+  <si>
+    <t>町村信孝</t>
+  </si>
+  <si>
+    <t>小里泰弘</t>
+  </si>
+  <si>
+    <t>富田茂之</t>
+  </si>
+  <si>
+    <t>金子一義</t>
+  </si>
+  <si>
+    <t>菅義偉</t>
+  </si>
+  <si>
+    <t>田村憲久</t>
+  </si>
+  <si>
+    <t>谷川弥一</t>
+  </si>
+  <si>
+    <t>谷畑孝</t>
+  </si>
+  <si>
+    <t>山本幸三</t>
+  </si>
+  <si>
+    <t>塩崎恭久</t>
+  </si>
+  <si>
+    <t>武部勤</t>
+  </si>
+  <si>
+    <t>金田勝年</t>
+  </si>
+  <si>
+    <t>遠山清彦</t>
+  </si>
+  <si>
+    <t>小泉進次郎</t>
+  </si>
+  <si>
+    <t>齋藤健</t>
+  </si>
+  <si>
+    <t>馳浩</t>
+  </si>
+  <si>
+    <t>赤澤亮正</t>
+  </si>
+  <si>
+    <t>伊東良孝</t>
+  </si>
+  <si>
+    <t>橘慶一郎</t>
+  </si>
+  <si>
+    <t>高木陽介</t>
+  </si>
+  <si>
+    <t>東順治</t>
+  </si>
+  <si>
+    <t>小野寺五典</t>
+  </si>
+  <si>
+    <t>小池百合子</t>
+  </si>
+  <si>
+    <t>公明</t>
+  </si>
+  <si>
+    <t>希望</t>
+  </si>
+  <si>
+    <t>稲富修二</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>自民</t>
+  </si>
+  <si>
+    <t>岸田文雄</t>
+  </si>
+  <si>
+    <t>玉木雄一郎</t>
+  </si>
+  <si>
+    <t>佐田玄一郎</t>
+  </si>
+  <si>
+    <t>小川淳也</t>
+  </si>
+  <si>
+    <t>園田博之</t>
+  </si>
+  <si>
+    <t>田野瀬良太郎</t>
+  </si>
+  <si>
+    <t>山本拓</t>
+  </si>
+  <si>
+    <t>後藤祐一</t>
+  </si>
+  <si>
+    <t>民進</t>
+  </si>
+  <si>
+    <t>緒方林太郎</t>
+  </si>
+  <si>
+    <t>大西健介</t>
+  </si>
+  <si>
+    <t>福島伸享</t>
+  </si>
+  <si>
+    <t>立憲</t>
+  </si>
+  <si>
+    <t>石破茂</t>
+  </si>
+  <si>
+    <t>岡本あき子</t>
+  </si>
+  <si>
+    <t>山内康一</t>
+  </si>
+  <si>
+    <t>大口善德</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧野党</t>
+    <rPh sb="0" eb="3">
+      <t>キュウヤトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大野功統</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鳩山邦夫</t>
+    <rPh sb="0" eb="4">
+      <t>ハトヤマクニオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>安倍晋三</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>党</t>
+  </si>
+  <si>
+    <t>民進党</t>
+  </si>
+  <si>
+    <t>立憲党</t>
+  </si>
+  <si>
+    <t>希望党</t>
+  </si>
+  <si>
+    <t>民主党</t>
+  </si>
+  <si>
+    <t>自民党</t>
+  </si>
+  <si>
+    <t>公明党</t>
+  </si>
+  <si>
+    <t>旧野党</t>
+    <rPh sb="0" eb="3">
+      <t>キュウヤトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現野党</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヤトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現野党</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヤトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,19 +346,242 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,13 +590,256 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -330,13 +1114,2457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1840F8E-5AC0-4A01-B0D4-0DE4E774A12A}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J1:J40">
+    <sortCondition ref="J1"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6171D02D-5E19-48FD-96FF-D3867219944F}">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A38 J1:J1048576 A1:A29 A40:A1048576">
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34 K1:K1048576 D1:D29 D40:D1048576">
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A37">
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D33">
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D39">
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD289B88-76F7-4240-AD8C-4021A55597FE}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="13" style="6" customWidth="1"/>
+    <col min="3" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="11.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="9"/>
+      <c r="B2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9"/>
+      <c r="B6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9"/>
+      <c r="B8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9"/>
+      <c r="B9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9"/>
+      <c r="B10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9"/>
+      <c r="B11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9"/>
+      <c r="B13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9"/>
+      <c r="B14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9"/>
+      <c r="B15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9"/>
+      <c r="B16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9"/>
+      <c r="B17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9"/>
+      <c r="B18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9"/>
+      <c r="B19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9"/>
+      <c r="B20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9"/>
+      <c r="B21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9"/>
+      <c r="B22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9"/>
+      <c r="B23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9"/>
+      <c r="B24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9"/>
+      <c r="B25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9"/>
+      <c r="B26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9"/>
+      <c r="B27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9"/>
+      <c r="B30" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9"/>
+      <c r="B31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9"/>
+      <c r="B32" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A33" s="9"/>
+      <c r="B33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="9"/>
+      <c r="B35" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9"/>
+      <c r="B36" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A37" s="9"/>
+      <c r="B37" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A38" s="17"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B38 B1:B29 B40:B1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34 E1:E29 E40:E1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:B37">
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E33">
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E39">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E32856D-A2C9-47FB-B9EA-E3311CE2A120}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="27"/>
+      <c r="B2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="27"/>
+      <c r="B3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="27"/>
+      <c r="B5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="27"/>
+      <c r="B6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="27"/>
+      <c r="B7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="27"/>
+      <c r="B8" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="28"/>
+      <c r="B9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1:B8">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E4">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E9">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>